--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业主要财务指标/按登记注册类型和行业分限额以上住宿业企业利润总额.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业主要财务指标/按登记注册类型和行业分限额以上住宿业企业利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1567 +623,1343 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.91279</v>
+        <v>205.1</v>
       </c>
       <c r="C2" t="n">
-        <v>20.86694</v>
+        <v>19.3</v>
       </c>
       <c r="D2" t="n">
-        <v>47.27354</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>650.1333</v>
+        <v>1603.1</v>
       </c>
       <c r="F2" t="n">
-        <v>2.11899</v>
+        <v>19.1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3862</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>26.2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>108.20391</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>409.4</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0.69369</v>
+        <v>1.1</v>
       </c>
       <c r="L2" t="n">
-        <v>450.72805</v>
+        <v>1268</v>
       </c>
       <c r="M2" t="n">
-        <v>3.44776</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>173.21359</v>
+        <v>319.1</v>
       </c>
       <c r="O2" t="n">
-        <v>13.96384</v>
+        <v>19.8</v>
       </c>
       <c r="P2" t="n">
-        <v>6.79497</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.09765</v>
+        <v>142.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7993400000000001</v>
+        <v>2.8</v>
       </c>
       <c r="S2" t="n">
-        <v>15.15783</v>
+        <v>46.7</v>
       </c>
       <c r="T2" t="n">
-        <v>621.83431</v>
+        <v>1371.9</v>
       </c>
       <c r="U2" t="n">
-        <v>122.16775</v>
+        <v>429.2</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>29.76469</v>
+        <v>28.1</v>
       </c>
       <c r="X2" t="n">
-        <v>76.75402</v>
+        <v>105.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>115.3076</v>
+        <v>192.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.74049</v>
+        <v>3.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.048400000000001</v>
+        <v>55.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.44087</v>
+        <v>393.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.52769</v>
+        <v>13.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>59.30614</v>
+        <v>293.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.93358</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.67346</v>
+        <v>21.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.49003</v>
+        <v>7.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.3637</v>
+        <v>10.2</v>
       </c>
       <c r="AI2" t="n">
-        <v>28.92384</v>
+        <v>51.7</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25.00928</v>
+        <v>37.9</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.55361</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.9947</v>
+        <v>235.9922</v>
       </c>
       <c r="C3" t="n">
-        <v>23.0899</v>
+        <v>23.2749</v>
       </c>
       <c r="D3" t="n">
-        <v>81.23309999999999</v>
+        <v>78.95440000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1355.9104</v>
+        <v>1911.525</v>
       </c>
       <c r="F3" t="n">
-        <v>11.0944</v>
+        <v>51.0571</v>
       </c>
       <c r="G3" t="n">
-        <v>18.3032</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>31.3262</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6592</v>
+      </c>
       <c r="I3" t="n">
-        <v>301.1986</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>547.872</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4858</v>
+      </c>
       <c r="K3" t="n">
-        <v>1.5106</v>
+        <v>1.4622</v>
       </c>
       <c r="L3" t="n">
-        <v>1034.2106</v>
+        <v>1535.0063</v>
       </c>
       <c r="M3" t="n">
-        <v>1.6976</v>
+        <v>1.5189</v>
       </c>
       <c r="N3" t="n">
-        <v>302.7843</v>
+        <v>351.0647</v>
       </c>
       <c r="O3" t="n">
-        <v>19.7427</v>
+        <v>23.9958</v>
       </c>
       <c r="P3" t="n">
-        <v>4.1404</v>
+        <v>3.5285</v>
       </c>
       <c r="Q3" t="n">
-        <v>142.6695</v>
+        <v>156.6656</v>
       </c>
       <c r="R3" t="n">
-        <v>3.3121</v>
+        <v>4.4022</v>
       </c>
       <c r="S3" t="n">
-        <v>35.0344</v>
+        <v>49.3749</v>
       </c>
       <c r="T3" t="n">
-        <v>1194.6124</v>
+        <v>1644.2065</v>
       </c>
       <c r="U3" t="n">
-        <v>320.9413</v>
+        <v>571.8678</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>28.4084</v>
+        <v>29.5534</v>
       </c>
       <c r="X3" t="n">
-        <v>109.7601</v>
+        <v>119.93</v>
       </c>
       <c r="Y3" t="n">
-        <v>179.0303</v>
+        <v>219.8531</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.0451</v>
+        <v>5.2989</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.8167</v>
+        <v>64.58499999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.8662</v>
+        <v>439.3293</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.3985</v>
+        <v>14.9967</v>
       </c>
       <c r="AD3" t="n">
-        <v>214.0681</v>
+        <v>332.4829</v>
       </c>
       <c r="AE3" t="n">
-        <v>50.8102</v>
+        <v>64.12009999999999</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5894</v>
+        <v>27.7297</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.7218</v>
+        <v>7.6301</v>
       </c>
       <c r="AH3" t="n">
-        <v>13.1799</v>
+        <v>12.644</v>
       </c>
       <c r="AI3" t="n">
-        <v>47.9446</v>
+        <v>63.3863</v>
       </c>
       <c r="AJ3" t="n">
-        <v>36.6781</v>
+        <v>38.0269</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.3732</v>
+        <v>1.1205</v>
       </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.75374</v>
+        <v>269.56754</v>
       </c>
       <c r="C4" t="n">
-        <v>16.43886</v>
+        <v>19.99067</v>
       </c>
       <c r="D4" t="n">
-        <v>66.81144999999999</v>
+        <v>81.36293999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1313.89347</v>
+        <v>2040.32566</v>
       </c>
       <c r="F4" t="n">
-        <v>15.66595</v>
+        <v>60.33076</v>
       </c>
       <c r="G4" t="n">
-        <v>20.11855</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>35.25281</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.73578</v>
+      </c>
       <c r="I4" t="n">
-        <v>313.47918</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>612.52921</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.22536</v>
+      </c>
       <c r="K4" t="n">
-        <v>0.64497</v>
+        <v>1.45324</v>
       </c>
       <c r="L4" t="n">
-        <v>1027.82433</v>
+        <v>1674.40685</v>
       </c>
       <c r="M4" t="n">
-        <v>1.95816</v>
+        <v>1.21237</v>
       </c>
       <c r="N4" t="n">
-        <v>287.96292</v>
+        <v>364.67074</v>
       </c>
       <c r="O4" t="n">
-        <v>17.25301</v>
+        <v>26.3832</v>
       </c>
       <c r="P4" t="n">
-        <v>3.68761</v>
+        <v>3.52018</v>
       </c>
       <c r="Q4" t="n">
-        <v>122.73645</v>
+        <v>149.23111</v>
       </c>
       <c r="R4" t="n">
-        <v>3.54372</v>
+        <v>2.53457</v>
       </c>
       <c r="S4" t="n">
-        <v>35.94242</v>
+        <v>44.60715</v>
       </c>
       <c r="T4" t="n">
-        <v>1142.02118</v>
+        <v>1735.50531</v>
       </c>
       <c r="U4" t="n">
-        <v>330.73219</v>
+        <v>638.91241</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>25.95883</v>
+        <v>28.24232</v>
       </c>
       <c r="X4" t="n">
-        <v>91.9118</v>
+        <v>112.4785</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.33269</v>
+        <v>216.6877</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.75635</v>
+        <v>6.26597</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.70571</v>
+        <v>69.47555</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.76095</v>
+        <v>483.0361</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.7564</v>
+        <v>16.31111</v>
       </c>
       <c r="AD4" t="n">
-        <v>222.40242</v>
+        <v>372.02282</v>
       </c>
       <c r="AE4" t="n">
-        <v>49.14153</v>
+        <v>69.59112</v>
       </c>
       <c r="AF4" t="n">
-        <v>16.4606</v>
+        <v>25.11105</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.87954</v>
+        <v>7.30688</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.38997</v>
+        <v>12.75371</v>
       </c>
       <c r="AI4" t="n">
-        <v>43.26734</v>
+        <v>66.21859000000001</v>
       </c>
       <c r="AJ4" t="n">
-        <v>33.16547</v>
+        <v>41.17766</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5888</v>
+        <v>1.12109</v>
       </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.1</v>
+        <v>283.10956</v>
       </c>
       <c r="C5" t="n">
-        <v>19.3</v>
+        <v>15.00272</v>
       </c>
       <c r="D5" t="n">
-        <v>74.09999999999999</v>
+        <v>75.29358999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1603.1</v>
+        <v>1927.15243</v>
       </c>
       <c r="F5" t="n">
-        <v>19.1</v>
+        <v>15.5891</v>
       </c>
       <c r="G5" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>38.95445</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.65907</v>
+      </c>
       <c r="I5" t="n">
-        <v>409.4</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>658.29328</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.90154</v>
+      </c>
       <c r="K5" t="n">
-        <v>1.1</v>
+        <v>0.271</v>
       </c>
       <c r="L5" t="n">
-        <v>1268</v>
+        <v>1574.86496</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0.86591</v>
       </c>
       <c r="N5" t="n">
-        <v>319.1</v>
+        <v>250.18988</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>56.53346</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>1.87807</v>
       </c>
       <c r="Q5" t="n">
-        <v>142.8</v>
+        <v>141.16072</v>
       </c>
       <c r="R5" t="n">
-        <v>2.8</v>
+        <v>2.5904</v>
       </c>
       <c r="S5" t="n">
-        <v>46.7</v>
+        <v>47.61494</v>
       </c>
       <c r="T5" t="n">
-        <v>1371.9</v>
+        <v>1605.08842</v>
       </c>
       <c r="U5" t="n">
-        <v>429.2</v>
+        <v>714.82674</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>28.1</v>
+        <v>25.66165</v>
       </c>
       <c r="X5" t="n">
-        <v>105.1</v>
+        <v>104.15969</v>
       </c>
       <c r="Y5" t="n">
-        <v>192.3</v>
+        <v>211.12675</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.6</v>
+        <v>5.56025</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.6</v>
+        <v>74.84362</v>
       </c>
       <c r="AB5" t="n">
-        <v>393.1</v>
+        <v>489.72888</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.8</v>
+        <v>10.39601</v>
       </c>
       <c r="AD5" t="n">
-        <v>293.2</v>
+        <v>410.99232</v>
       </c>
       <c r="AE5" t="n">
-        <v>64.90000000000001</v>
+        <v>42.21326</v>
       </c>
       <c r="AF5" t="n">
-        <v>21.2</v>
+        <v>26.12729</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.6</v>
+        <v>3.85655</v>
       </c>
       <c r="AH5" t="n">
-        <v>10.2</v>
+        <v>6.22397</v>
       </c>
       <c r="AI5" t="n">
-        <v>51.7</v>
+        <v>64.25527</v>
       </c>
       <c r="AJ5" t="n">
-        <v>37.9</v>
+        <v>30.19457</v>
       </c>
       <c r="AK5" t="n">
-        <v>1</v>
+        <v>0.84157</v>
       </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>235.9922</v>
+        <v>302.45787</v>
       </c>
       <c r="C6" t="n">
-        <v>23.2749</v>
+        <v>13.85946</v>
       </c>
       <c r="D6" t="n">
-        <v>78.95440000000001</v>
+        <v>68.19929</v>
       </c>
       <c r="E6" t="n">
-        <v>1911.525</v>
+        <v>1952.2</v>
       </c>
       <c r="F6" t="n">
-        <v>51.0571</v>
+        <v>13.60084</v>
       </c>
       <c r="G6" t="n">
-        <v>31.3262</v>
+        <v>36.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6592</v>
+        <v>2.39218</v>
       </c>
       <c r="I6" t="n">
-        <v>547.872</v>
+        <v>695.2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4858</v>
+        <v>0.26918</v>
       </c>
       <c r="K6" t="n">
-        <v>1.4622</v>
+        <v>0.28199</v>
       </c>
       <c r="L6" t="n">
-        <v>1535.0063</v>
+        <v>1611.8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.5189</v>
+        <v>0.7144200000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>351.0647</v>
+        <v>232.54282</v>
       </c>
       <c r="O6" t="n">
-        <v>23.9958</v>
+        <v>63.09196</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5285</v>
+        <v>1.99541</v>
       </c>
       <c r="Q6" t="n">
-        <v>156.6656</v>
+        <v>130.0579</v>
       </c>
       <c r="R6" t="n">
-        <v>4.4022</v>
+        <v>3.84693</v>
       </c>
       <c r="S6" t="n">
-        <v>49.3749</v>
+        <v>41.76004</v>
       </c>
       <c r="T6" t="n">
-        <v>1644.2065</v>
+        <v>1613.27045</v>
       </c>
       <c r="U6" t="n">
-        <v>571.8678</v>
+        <v>758.3</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>29.5534</v>
+        <v>30.33753</v>
       </c>
       <c r="X6" t="n">
-        <v>119.93</v>
+        <v>98.66689</v>
       </c>
       <c r="Y6" t="n">
-        <v>219.8531</v>
+        <v>210.4334</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.2989</v>
+        <v>5.88567</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.58499999999999</v>
+        <v>75.27413</v>
       </c>
       <c r="AB6" t="n">
-        <v>439.3293</v>
+        <v>508.47448</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.9967</v>
+        <v>9.60083</v>
       </c>
       <c r="AD6" t="n">
-        <v>332.4829</v>
+        <v>432.40817</v>
       </c>
       <c r="AE6" t="n">
-        <v>64.12009999999999</v>
+        <v>40.56684</v>
       </c>
       <c r="AF6" t="n">
-        <v>27.7297</v>
+        <v>25.89864</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.6301</v>
+        <v>3.39823</v>
       </c>
       <c r="AH6" t="n">
-        <v>12.644</v>
+        <v>5.53201</v>
       </c>
       <c r="AI6" t="n">
-        <v>63.3863</v>
+        <v>61.30001</v>
       </c>
       <c r="AJ6" t="n">
-        <v>38.0269</v>
+        <v>28.58527</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.1205</v>
+        <v>0.40641</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>269.56754</v>
+        <v>316.1445</v>
       </c>
       <c r="C7" t="n">
-        <v>19.99067</v>
+        <v>13.5468</v>
       </c>
       <c r="D7" t="n">
-        <v>81.36293999999999</v>
+        <v>68.19840000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>2040.32566</v>
+        <v>2006.6057</v>
       </c>
       <c r="F7" t="n">
-        <v>60.33076</v>
+        <v>12.4058</v>
       </c>
       <c r="G7" t="n">
-        <v>35.25281</v>
+        <v>42.5107</v>
       </c>
       <c r="H7" t="n">
-        <v>0.73578</v>
+        <v>3.1433</v>
       </c>
       <c r="I7" t="n">
-        <v>612.52921</v>
+        <v>739.2821</v>
       </c>
       <c r="J7" t="n">
-        <v>0.22536</v>
+        <v>2.0204</v>
       </c>
       <c r="K7" t="n">
-        <v>1.45324</v>
+        <v>0.312</v>
       </c>
       <c r="L7" t="n">
-        <v>1674.40685</v>
+        <v>1662.8312</v>
       </c>
       <c r="M7" t="n">
-        <v>1.21237</v>
+        <v>0.5508999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>364.67074</v>
+        <v>230.7692</v>
       </c>
       <c r="O7" t="n">
-        <v>26.3832</v>
+        <v>65.23260000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>3.52018</v>
+        <v>2.1213</v>
       </c>
       <c r="Q7" t="n">
-        <v>149.23111</v>
+        <v>131.2393</v>
       </c>
       <c r="R7" t="n">
-        <v>2.53457</v>
+        <v>3.9333</v>
       </c>
       <c r="S7" t="n">
-        <v>44.60715</v>
+        <v>42.4176</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.50531</v>
+        <v>1647.9513</v>
       </c>
       <c r="U7" t="n">
-        <v>638.91241</v>
+        <v>804.5141</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>28.24232</v>
+        <v>24.4818</v>
       </c>
       <c r="X7" t="n">
-        <v>112.4785</v>
+        <v>100.1869</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.6877</v>
+        <v>212.5349</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.26597</v>
+        <v>5.0675</v>
       </c>
       <c r="AA7" t="n">
-        <v>69.47555</v>
+        <v>80.7778</v>
       </c>
       <c r="AB7" t="n">
-        <v>483.0361</v>
+        <v>521.5778</v>
       </c>
       <c r="AC7" t="n">
-        <v>16.31111</v>
+        <v>9.5671</v>
       </c>
       <c r="AD7" t="n">
-        <v>372.02282</v>
+        <v>449.6187</v>
       </c>
       <c r="AE7" t="n">
-        <v>69.59112</v>
+        <v>37.1989</v>
       </c>
       <c r="AF7" t="n">
-        <v>25.11105</v>
+        <v>25.1914</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.30688</v>
+        <v>3.2659</v>
       </c>
       <c r="AH7" t="n">
-        <v>12.75371</v>
+        <v>5.6382</v>
       </c>
       <c r="AI7" t="n">
-        <v>66.21859000000001</v>
+        <v>58.2229</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41.17766</v>
+        <v>26.4368</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.12109</v>
+        <v>0.2818</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>283.10956</v>
+        <v>348.4975</v>
       </c>
       <c r="C8" t="n">
-        <v>15.00272</v>
+        <v>16.3251</v>
       </c>
       <c r="D8" t="n">
-        <v>75.29358999999999</v>
+        <v>62.2312</v>
       </c>
       <c r="E8" t="n">
-        <v>1927.15243</v>
+        <v>2108.5668</v>
       </c>
       <c r="F8" t="n">
-        <v>15.5891</v>
+        <v>9.228999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>38.95445</v>
+        <v>43.1667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.65907</v>
+        <v>3.2324</v>
       </c>
       <c r="I8" t="n">
-        <v>658.29328</v>
+        <v>793.9516</v>
       </c>
       <c r="J8" t="n">
-        <v>0.90154</v>
+        <v>1.8987</v>
       </c>
       <c r="K8" t="n">
-        <v>0.271</v>
+        <v>0.1804</v>
       </c>
       <c r="L8" t="n">
-        <v>1574.86496</v>
+        <v>1761.4555</v>
       </c>
       <c r="M8" t="n">
-        <v>0.86591</v>
+        <v>0.5778</v>
       </c>
       <c r="N8" t="n">
-        <v>250.18988</v>
+        <v>229.4745</v>
       </c>
       <c r="O8" t="n">
-        <v>56.53346</v>
+        <v>79.80840000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>1.87807</v>
+        <v>1.8177</v>
       </c>
       <c r="Q8" t="n">
-        <v>141.16072</v>
+        <v>125.8788</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5904</v>
+        <v>3.7393</v>
       </c>
       <c r="S8" t="n">
-        <v>47.61494</v>
+        <v>40.3504</v>
       </c>
       <c r="T8" t="n">
-        <v>1605.08842</v>
+        <v>1716.9032</v>
       </c>
       <c r="U8" t="n">
-        <v>714.82674</v>
+        <v>873.7607</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>25.66165</v>
+        <v>25.2154</v>
       </c>
       <c r="X8" t="n">
-        <v>104.15969</v>
+        <v>100.3576</v>
       </c>
       <c r="Y8" t="n">
-        <v>211.12675</v>
+        <v>221.2321</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.56025</v>
+        <v>6.2322</v>
       </c>
       <c r="AA8" t="n">
-        <v>74.84362</v>
+        <v>87.52800000000001</v>
       </c>
       <c r="AB8" t="n">
-        <v>489.72888</v>
+        <v>552.1896</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.39601</v>
+        <v>9.6366</v>
       </c>
       <c r="AD8" t="n">
-        <v>410.99232</v>
+        <v>483.4912</v>
       </c>
       <c r="AE8" t="n">
-        <v>42.21326</v>
+        <v>33.4431</v>
       </c>
       <c r="AF8" t="n">
-        <v>26.12729</v>
+        <v>25.6181</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.85655</v>
+        <v>2.8659</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.22397</v>
+        <v>5.3038</v>
       </c>
       <c r="AI8" t="n">
-        <v>64.25527</v>
+        <v>63.5369</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30.19457</v>
+        <v>25.094</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.84157</v>
+        <v>0.2896</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>302.45787</v>
+        <v>391.004</v>
       </c>
       <c r="C9" t="n">
-        <v>13.85946</v>
+        <v>15.458</v>
       </c>
       <c r="D9" t="n">
-        <v>68.19929</v>
+        <v>57.095</v>
       </c>
       <c r="E9" t="n">
-        <v>1952.2</v>
+        <v>2161.0488</v>
       </c>
       <c r="F9" t="n">
-        <v>13.60084</v>
+        <v>6.3641</v>
       </c>
       <c r="G9" t="n">
-        <v>36.4</v>
+        <v>44.577</v>
       </c>
       <c r="H9" t="n">
-        <v>2.39218</v>
+        <v>4.387</v>
       </c>
       <c r="I9" t="n">
-        <v>695.2</v>
+        <v>812.549</v>
       </c>
       <c r="J9" t="n">
-        <v>0.26918</v>
+        <v>1.604</v>
       </c>
       <c r="K9" t="n">
-        <v>0.28199</v>
+        <v>0.259</v>
       </c>
       <c r="L9" t="n">
-        <v>1611.8</v>
+        <v>1827.0804</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7144200000000001</v>
+        <v>0.506</v>
       </c>
       <c r="N9" t="n">
-        <v>232.54282</v>
+        <v>209.189</v>
       </c>
       <c r="O9" t="n">
-        <v>63.09196</v>
+        <v>84.283</v>
       </c>
       <c r="P9" t="n">
-        <v>1.99541</v>
+        <v>1.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.0579</v>
+        <v>117.823</v>
       </c>
       <c r="R9" t="n">
-        <v>3.84693</v>
+        <v>2.349</v>
       </c>
       <c r="S9" t="n">
-        <v>41.76004</v>
+        <v>38.534</v>
       </c>
       <c r="T9" t="n">
-        <v>1613.27045</v>
+        <v>1725.467</v>
       </c>
       <c r="U9" t="n">
-        <v>758.3</v>
+        <v>896.831</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>30.33753</v>
+        <v>20.693</v>
       </c>
       <c r="X9" t="n">
-        <v>98.66689</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>210.4334</v>
+        <v>216.143</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.88567</v>
+        <v>6.03</v>
       </c>
       <c r="AA9" t="n">
-        <v>75.27413</v>
+        <v>94.386</v>
       </c>
       <c r="AB9" t="n">
-        <v>508.47448</v>
+        <v>623.6124</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.60083</v>
+        <v>8.85</v>
       </c>
       <c r="AD9" t="n">
-        <v>432.40817</v>
+        <v>560.905</v>
       </c>
       <c r="AE9" t="n">
-        <v>40.56684</v>
+        <v>29.213</v>
       </c>
       <c r="AF9" t="n">
-        <v>25.89864</v>
+        <v>24.6453</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.39823</v>
+        <v>2.452</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.53201</v>
+        <v>4.294</v>
       </c>
       <c r="AI9" t="n">
-        <v>61.30001</v>
+        <v>61.345</v>
       </c>
       <c r="AJ9" t="n">
-        <v>28.58527</v>
+        <v>22.993</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.40641</v>
+        <v>0.266</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>316.1445</v>
+        <v>439.7</v>
       </c>
       <c r="C10" t="n">
-        <v>13.5468</v>
+        <v>13.6</v>
       </c>
       <c r="D10" t="n">
-        <v>68.19840000000001</v>
+        <v>59.7</v>
       </c>
       <c r="E10" t="n">
-        <v>2006.6057</v>
+        <v>2329.5</v>
       </c>
       <c r="F10" t="n">
-        <v>12.4058</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>42.5107</v>
+        <v>41.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1433</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>739.2821</v>
+        <v>840.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.0204</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.312</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1662.8312</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.5508999999999999</v>
-      </c>
+        <v>1985.1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>230.7692</v>
+        <v>190.4</v>
       </c>
       <c r="O10" t="n">
-        <v>65.23260000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1213</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>131.2393</v>
+        <v>118.9</v>
       </c>
       <c r="R10" t="n">
-        <v>3.9333</v>
+        <v>2.9</v>
       </c>
       <c r="S10" t="n">
-        <v>42.4176</v>
+        <v>38.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1647.9513</v>
+        <v>1843.9</v>
       </c>
       <c r="U10" t="n">
-        <v>804.5141</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>935.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4</v>
+      </c>
       <c r="W10" t="n">
-        <v>24.4818</v>
+        <v>24.2</v>
       </c>
       <c r="X10" t="n">
-        <v>100.1869</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.5349</v>
+        <v>225.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.0675</v>
+        <v>5.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>80.7778</v>
+        <v>102.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>521.5778</v>
+        <v>753.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5671</v>
+        <v>8.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>449.6187</v>
+        <v>698.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>37.1989</v>
+        <v>28.4</v>
       </c>
       <c r="AF10" t="n">
-        <v>25.1914</v>
+        <v>18.1</v>
       </c>
       <c r="AG10" t="n">
-        <v>3.2659</v>
+        <v>2.9</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.6382</v>
+        <v>4.3</v>
       </c>
       <c r="AI10" t="n">
-        <v>58.2229</v>
+        <v>76.3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26.4368</v>
+        <v>21.8</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.2818</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>348.4975</v>
+        <v>1.4634</v>
       </c>
       <c r="C11" t="n">
-        <v>16.3251</v>
+        <v>0.7875</v>
       </c>
       <c r="D11" t="n">
-        <v>62.2312</v>
+        <v>3.3328</v>
       </c>
       <c r="E11" t="n">
-        <v>2108.5668</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9.228999999999999</v>
-      </c>
+        <v>-102.2876</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>43.1667</v>
+        <v>-4.4955</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2324</v>
+        <v>-0.5416</v>
       </c>
       <c r="I11" t="n">
-        <v>793.9516</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.8987</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1804</v>
-      </c>
+        <v>-57.9649</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1761.4555</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.5778</v>
-      </c>
+        <v>-107.1895</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>229.4745</v>
+        <v>-7.9222</v>
       </c>
       <c r="O11" t="n">
-        <v>79.80840000000001</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.8177</v>
-      </c>
+        <v>-10.107</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>125.8788</v>
+        <v>5.9039</v>
       </c>
       <c r="R11" t="n">
-        <v>3.7393</v>
+        <v>2.8909</v>
       </c>
       <c r="S11" t="n">
-        <v>40.3504</v>
+        <v>-0.5654</v>
       </c>
       <c r="T11" t="n">
-        <v>1716.9032</v>
+        <v>-97.94199999999999</v>
       </c>
       <c r="U11" t="n">
-        <v>873.7607</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>-68.0715</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-1.2319</v>
+      </c>
       <c r="W11" t="n">
-        <v>25.2154</v>
+        <v>2.7319</v>
       </c>
       <c r="X11" t="n">
-        <v>100.3576</v>
+        <v>0.5741000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>221.2321</v>
+        <v>-1.0027</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.2322</v>
+        <v>0.3106</v>
       </c>
       <c r="AA11" t="n">
-        <v>87.52800000000001</v>
+        <v>-4.5698</v>
       </c>
       <c r="AB11" t="n">
-        <v>552.1896</v>
+        <v>-43.9669</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6366</v>
+        <v>1.4665</v>
       </c>
       <c r="AD11" t="n">
-        <v>483.4912</v>
+        <v>-51.1658</v>
       </c>
       <c r="AE11" t="n">
-        <v>33.4431</v>
+        <v>5.3568</v>
       </c>
       <c r="AF11" t="n">
-        <v>25.6181</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2.8659</v>
-      </c>
+        <v>0.3753</v>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>5.3038</v>
+        <v>0.1878</v>
       </c>
       <c r="AI11" t="n">
-        <v>63.5369</v>
+        <v>12.0238</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25.094</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.2896</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>0.5221</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>-0.0828</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>391.004</v>
+        <v>-59.7336</v>
       </c>
       <c r="C12" t="n">
-        <v>15.458</v>
+        <v>-1.5024</v>
       </c>
       <c r="D12" t="n">
-        <v>57.095</v>
+        <v>-10.5676</v>
       </c>
       <c r="E12" t="n">
-        <v>2161.0488</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6.3641</v>
-      </c>
+        <v>-414.4978</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>44.577</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.387</v>
-      </c>
+        <v>-10.6638</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>812.549</v>
+        <v>-143.6982</v>
       </c>
       <c r="J12" t="n">
-        <v>1.604</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.259</v>
-      </c>
+        <v>-0.2983</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1827.0804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.506</v>
-      </c>
+        <v>-351.4304</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>209.189</v>
+        <v>-35.2681</v>
       </c>
       <c r="O12" t="n">
-        <v>84.283</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.42</v>
-      </c>
+        <v>-28.1963</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>117.823</v>
+        <v>-21.7911</v>
       </c>
       <c r="R12" t="n">
-        <v>2.349</v>
+        <v>-0.5591</v>
       </c>
       <c r="S12" t="n">
-        <v>38.534</v>
+        <v>-9.188499999999999</v>
       </c>
       <c r="T12" t="n">
-        <v>1725.467</v>
+        <v>-342.9347</v>
       </c>
       <c r="U12" t="n">
-        <v>896.831</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>-171.8944</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-1.3075</v>
+      </c>
       <c r="W12" t="n">
-        <v>20.693</v>
+        <v>-1.8936</v>
       </c>
       <c r="X12" t="n">
-        <v>93.43000000000001</v>
+        <v>-14.2313</v>
       </c>
       <c r="Y12" t="n">
-        <v>216.143</v>
+        <v>-41.2765</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.03</v>
+        <v>-0.1677</v>
       </c>
       <c r="AA12" t="n">
-        <v>94.386</v>
+        <v>-24.6855</v>
       </c>
       <c r="AB12" t="n">
-        <v>623.6124</v>
+        <v>-136.3772</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.85</v>
+        <v>0.862</v>
       </c>
       <c r="AD12" t="n">
-        <v>560.905</v>
+        <v>-138.8798</v>
       </c>
       <c r="AE12" t="n">
-        <v>29.213</v>
+        <v>4.0699</v>
       </c>
       <c r="AF12" t="n">
-        <v>24.6453</v>
+        <v>-2.4291</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.452</v>
+        <v>-0.8245</v>
       </c>
       <c r="AH12" t="n">
-        <v>4.294</v>
+        <v>-5.1653</v>
       </c>
       <c r="AI12" t="n">
-        <v>61.345</v>
+        <v>-1.062</v>
       </c>
       <c r="AJ12" t="n">
-        <v>22.993</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.266</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>-0.8349</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>0.1412</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>439.7</v>
+        <v>-58.3099</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6</v>
+        <v>1.2921</v>
       </c>
       <c r="D13" t="n">
-        <v>59.7</v>
+        <v>-6.7666</v>
       </c>
       <c r="E13" t="n">
-        <v>2329.5</v>
+        <v>-419.0961</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>-0.1016</v>
       </c>
       <c r="G13" t="n">
-        <v>41.7</v>
+        <v>-7.3064</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>-0.1674</v>
       </c>
       <c r="I13" t="n">
-        <v>840.5</v>
+        <v>-181.416</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>-0.3684</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1985.1</v>
+        <v>-370.4563</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>190.4</v>
+        <v>-31.7403</v>
       </c>
       <c r="O13" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
+        <v>-29.1799</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>118.9</v>
+        <v>-12.3367</v>
       </c>
       <c r="R13" t="n">
-        <v>2.9</v>
+        <v>-0.8831</v>
       </c>
       <c r="S13" t="n">
-        <v>38.9</v>
+        <v>-5.8117</v>
       </c>
       <c r="T13" t="n">
-        <v>1843.9</v>
+        <v>-352.716</v>
       </c>
       <c r="U13" t="n">
-        <v>935.2</v>
+        <v>-210.5959</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>-0.7624</v>
       </c>
       <c r="W13" t="n">
-        <v>24.2</v>
+        <v>-0.6634</v>
       </c>
       <c r="X13" t="n">
-        <v>93.09999999999999</v>
+        <v>-11.7268</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.5</v>
+        <v>-36.3033</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.1</v>
+        <v>0.4715</v>
       </c>
       <c r="AA13" t="n">
-        <v>102.1</v>
+        <v>-24.0161</v>
       </c>
       <c r="AB13" t="n">
-        <v>753.2</v>
+        <v>-125.3362</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.1</v>
+        <v>0.8913</v>
       </c>
       <c r="AD13" t="n">
-        <v>698.6</v>
+        <v>-127.5835</v>
       </c>
       <c r="AE13" t="n">
-        <v>28.4</v>
+        <v>4.167</v>
       </c>
       <c r="AF13" t="n">
-        <v>18.1</v>
+        <v>-2.8109</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.9</v>
+        <v>-0.1911</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.3</v>
+        <v>-0.4397</v>
       </c>
       <c r="AI13" t="n">
-        <v>76.3</v>
+        <v>-1.9445</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.2</v>
-      </c>
+        <v>-0.1071</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.4634</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7875</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.3328</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-102.2876</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>-4.4955</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.5416</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-57.9649</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>-107.1895</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>-7.9222</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-10.107</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>5.9039</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.8909</v>
-      </c>
-      <c r="S14" t="n">
-        <v>-0.5654</v>
-      </c>
-      <c r="T14" t="n">
-        <v>-97.94199999999999</v>
-      </c>
-      <c r="U14" t="n">
-        <v>-68.0715</v>
-      </c>
-      <c r="V14" t="n">
-        <v>-1.2319</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.7319</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.5741000000000001</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>-1.0027</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.3106</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>-4.5698</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>-43.9669</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.4665</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>-51.1658</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>5.3568</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.3753</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="n">
-        <v>0.1878</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>12.0238</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0.5221</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>-0.0828</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-59.7336</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-1.5024</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-10.5676</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-414.4978</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>-10.6638</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>-143.6982</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-0.2983</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>-351.4304</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>-35.2681</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-28.1963</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>-21.7911</v>
-      </c>
-      <c r="R15" t="n">
-        <v>-0.5591</v>
-      </c>
-      <c r="S15" t="n">
-        <v>-9.188499999999999</v>
-      </c>
-      <c r="T15" t="n">
-        <v>-342.9347</v>
-      </c>
-      <c r="U15" t="n">
-        <v>-171.8944</v>
-      </c>
-      <c r="V15" t="n">
-        <v>-1.3075</v>
-      </c>
-      <c r="W15" t="n">
-        <v>-1.8936</v>
-      </c>
-      <c r="X15" t="n">
-        <v>-14.2313</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>-41.2765</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>-0.1677</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>-24.6855</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>-136.3772</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>-138.8798</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>4.0699</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>-2.4291</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>-0.8245</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>-5.1653</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>-1.062</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>-0.8349</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
-        <v>0.1412</v>
+        <v>-0.0015</v>
       </c>
     </row>
   </sheetData>
